--- a/misc/チョロ書き用.xlsx
+++ b/misc/チョロ書き用.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\ex_Narrow_Font\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C683A579-98CB-4985-A2CB-6CB5CBE82925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841CEE5-04E7-48D6-AA39-D5EAF5689BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60705" yWindow="810" windowWidth="28800" windowHeight="15375" activeTab="2" xr2:uid="{8B807924-754F-4D0C-9783-9CC77C547A93}"/>
+    <workbookView xWindow="11070" yWindow="2650" windowWidth="19330" windowHeight="14480" activeTab="3" xr2:uid="{8B807924-754F-4D0C-9783-9CC77C547A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="AIが作った資料。ソース不明" sheetId="3" r:id="rId3"/>
+    <sheet name="拡幅除外" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="150">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1"/>
@@ -363,12 +364,182 @@
     <t>Trademark</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24EB</t>
+  </si>
+  <si>
+    <t>24EC</t>
+  </si>
+  <si>
+    <t>24ED</t>
+  </si>
+  <si>
+    <t>24EE</t>
+  </si>
+  <si>
+    <t>24EF</t>
+  </si>
+  <si>
+    <t>24F0</t>
+  </si>
+  <si>
+    <t>24F1</t>
+  </si>
+  <si>
+    <t>24F2</t>
+  </si>
+  <si>
+    <t>24F3</t>
+  </si>
+  <si>
+    <t>24F4</t>
+  </si>
+  <si>
+    <t>❶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❽</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>❿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓭</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓳</t>
+  </si>
+  <si>
+    <t>❖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2756</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>2777</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2779</t>
+  </si>
+  <si>
+    <t>277A</t>
+  </si>
+  <si>
+    <t>277B</t>
+  </si>
+  <si>
+    <t>277C</t>
+  </si>
+  <si>
+    <t>277D</t>
+  </si>
+  <si>
+    <t>277E</t>
+  </si>
+  <si>
+    <t>277F</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if glyph.glyphname == ["</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"]: return</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +577,20 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="BIZ UDPゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -435,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,10 +636,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2049,7 +2237,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2300,25 +2488,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0ADE97-CC1E-405C-96CD-BCBB38C1F389}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="35.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="5"/>
-    <col min="7" max="7" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="5"/>
-    <col min="10" max="10" width="3.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="5"/>
+    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2331,7 +2515,7 @@
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -2354,684 +2538,1777 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>63</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC871E9A-8DE7-43CD-B49C-4F8F71EEA01F}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="7"/>
+    <col min="8" max="8" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>IF(B2="","",_xlfn.UNICHAR(RIGHT(B2,4)))</f>
+        <v>ૄ</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>ASC(_xlfn.CONCAT(A2,"uni"&amp;B2,C2))</f>
+        <v>if glyph.glyphname == ["uni2756"]: return</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="6">
+        <f>_xlfn.UNICODE(G2)</f>
+        <v>10070</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>DEC2HEX(H2)</f>
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>149</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D24" si="0">IF(B3="","",_xlfn.UNICHAR(RIGHT(B3,4)))</f>
+        <v>૘</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E41" si="1">ASC(_xlfn.CONCAT(A3,"uni"&amp;B3,C3))</f>
+        <v>if glyph.glyphname == ["uni2776"]: return</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H22" si="2">_xlfn.UNICODE(G3)</f>
+        <v>10102</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f t="shared" ref="I3:I22" si="3">DEC2HEX(H3)</f>
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>149</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>૙</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni2777"]: return</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="2"/>
+        <v>10103</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>149</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>૚</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni2778"]: return</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>10104</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>૛</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni2779"]: return</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>10105</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="5">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>149</v>
+      </c>
+      <c r="D7" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni277A"]: return</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>10106</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>277A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="5">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>149</v>
+      </c>
+      <c r="D8" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni277B"]: return</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>10107</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>277B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="5">
-        <v>7</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>149</v>
+      </c>
+      <c r="D9" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni277C"]: return</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>10108</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>277C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="5">
-        <v>8</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>149</v>
+      </c>
+      <c r="D10" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni277D"]: return</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>10109</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>277D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="5">
-        <v>9</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni277E"]: return</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>10110</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>277E</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="5">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>149</v>
+      </c>
+      <c r="D12" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni277F"]: return</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>10111</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>277F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="5">
-        <v>11</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>149</v>
+      </c>
+      <c r="D13" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24EB"]: return</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>9451</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24EB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="5">
-        <v>12</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>149</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24EC"]: return</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>9452</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24EC</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="5">
-        <v>13</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>85</v>
+        <v>149</v>
+      </c>
+      <c r="D15" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24ED"]: return</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>9453</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24ED</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="5">
-        <v>14</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>149</v>
+      </c>
+      <c r="D16" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24EE"]: return</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>9454</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24EE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="5">
-        <v>16</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>89</v>
+        <v>149</v>
+      </c>
+      <c r="D17" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24EF"]: return</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>9455</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24EF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="5">
-        <v>17</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>91</v>
+        <v>149</v>
+      </c>
+      <c r="D18" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24F0"]: return</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>9456</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24F0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="5">
-        <v>18</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>149</v>
+      </c>
+      <c r="D19" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24F1"]: return</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>9457</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24F1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="5">
-        <v>19</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="E21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="5">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>149</v>
+      </c>
+      <c r="D20" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24F2"]: return</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>9458</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24F2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24F3"]: return</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>9459</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24F3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="5">
-        <v>21</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>149</v>
+      </c>
+      <c r="D22" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni24F4"]: return</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>9460</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24F4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="5">
-        <v>22</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>99</v>
+        <v>149</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" ref="D25:D41" si="4">IF(B25="","",_xlfn.UNICHAR(RIGHT(B25,4)))</f>
+        <v/>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>if glyph.glyphname == ["uni"]: return</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/misc/チョロ書き用.xlsx
+++ b/misc/チョロ書き用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841CEE5-04E7-48D6-AA39-D5EAF5689BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DEDA33-692F-4EBC-BA0F-4B32B77B93EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="2650" windowWidth="19330" windowHeight="14480" activeTab="3" xr2:uid="{8B807924-754F-4D0C-9783-9CC77C547A93}"/>
+    <workbookView xWindow="58740" yWindow="1140" windowWidth="28800" windowHeight="15225" activeTab="3" xr2:uid="{8B807924-754F-4D0C-9783-9CC77C547A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="151">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1"/>
@@ -532,6 +532,10 @@
   </si>
   <si>
     <t>"]: return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"]:  ep = False</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3237,9 +3241,9 @@
   <cols>
     <col min="1" max="1" width="30.36328125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" style="7"/>
     <col min="8" max="8" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
@@ -3265,7 +3269,7 @@
         <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>IF(B2="","",_xlfn.UNICHAR(RIGHT(B2,4)))</f>
@@ -3273,7 +3277,7 @@
       </c>
       <c r="E2" s="6" t="str">
         <f>ASC(_xlfn.CONCAT(A2,"uni"&amp;B2,C2))</f>
-        <v>if glyph.glyphname == ["uni2756"]: return</v>
+        <v>if glyph.glyphname == ["uni2756"]:  ep = False</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>147</v>
@@ -3298,7 +3302,7 @@
         <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D24" si="0">IF(B3="","",_xlfn.UNICHAR(RIGHT(B3,4)))</f>
@@ -3306,7 +3310,7 @@
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ref="E3:E41" si="1">ASC(_xlfn.CONCAT(A3,"uni"&amp;B3,C3))</f>
-        <v>if glyph.glyphname == ["uni2776"]: return</v>
+        <v>if glyph.glyphname == ["uni2776"]:  ep = False</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>147</v>
@@ -3331,7 +3335,7 @@
         <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3339,7 +3343,7 @@
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni2777"]: return</v>
+        <v>if glyph.glyphname == ["uni2777"]:  ep = False</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>147</v>
@@ -3364,7 +3368,7 @@
         <v>139</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3372,7 +3376,7 @@
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni2778"]: return</v>
+        <v>if glyph.glyphname == ["uni2778"]:  ep = False</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>147</v>
@@ -3397,7 +3401,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3405,7 +3409,7 @@
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni2779"]: return</v>
+        <v>if glyph.glyphname == ["uni2779"]:  ep = False</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>147</v>
@@ -3430,7 +3434,7 @@
         <v>141</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3438,7 +3442,7 @@
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277A"]: return</v>
+        <v>if glyph.glyphname == ["uni277A"]:  ep = False</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>147</v>
@@ -3463,7 +3467,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3471,7 +3475,7 @@
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277B"]: return</v>
+        <v>if glyph.glyphname == ["uni277B"]:  ep = False</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>147</v>
@@ -3496,7 +3500,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3504,7 +3508,7 @@
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277C"]: return</v>
+        <v>if glyph.glyphname == ["uni277C"]:  ep = False</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>147</v>
@@ -3529,7 +3533,7 @@
         <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3537,7 +3541,7 @@
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277D"]: return</v>
+        <v>if glyph.glyphname == ["uni277D"]:  ep = False</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>147</v>
@@ -3562,7 +3566,7 @@
         <v>145</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3570,7 +3574,7 @@
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277E"]: return</v>
+        <v>if glyph.glyphname == ["uni277E"]:  ep = False</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>147</v>
@@ -3595,7 +3599,7 @@
         <v>146</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3603,7 +3607,7 @@
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277F"]: return</v>
+        <v>if glyph.glyphname == ["uni277F"]:  ep = False</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>147</v>
@@ -3628,7 +3632,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3636,7 +3640,7 @@
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EB"]: return</v>
+        <v>if glyph.glyphname == ["uni24EB"]:  ep = False</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>147</v>
@@ -3661,7 +3665,7 @@
         <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3669,7 +3673,7 @@
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EC"]: return</v>
+        <v>if glyph.glyphname == ["uni24EC"]:  ep = False</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>147</v>
@@ -3694,7 +3698,7 @@
         <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24ED"]: return</v>
+        <v>if glyph.glyphname == ["uni24ED"]:  ep = False</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>147</v>
@@ -3727,7 +3731,7 @@
         <v>108</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3735,7 +3739,7 @@
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EE"]: return</v>
+        <v>if glyph.glyphname == ["uni24EE"]:  ep = False</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>147</v>
@@ -3760,7 +3764,7 @@
         <v>109</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3768,7 +3772,7 @@
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EF"]: return</v>
+        <v>if glyph.glyphname == ["uni24EF"]:  ep = False</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>147</v>
@@ -3793,7 +3797,7 @@
         <v>110</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3801,7 +3805,7 @@
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F0"]: return</v>
+        <v>if glyph.glyphname == ["uni24F0"]:  ep = False</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>147</v>
@@ -3826,7 +3830,7 @@
         <v>111</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3834,7 +3838,7 @@
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F1"]: return</v>
+        <v>if glyph.glyphname == ["uni24F1"]:  ep = False</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>147</v>
@@ -3859,7 +3863,7 @@
         <v>112</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3867,7 +3871,7 @@
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F2"]: return</v>
+        <v>if glyph.glyphname == ["uni24F2"]:  ep = False</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>147</v>
@@ -3892,7 +3896,7 @@
         <v>113</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3900,7 +3904,7 @@
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F3"]: return</v>
+        <v>if glyph.glyphname == ["uni24F3"]:  ep = False</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>147</v>
@@ -3925,7 +3929,7 @@
         <v>114</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3933,7 +3937,7 @@
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F4"]: return</v>
+        <v>if glyph.glyphname == ["uni24F4"]:  ep = False</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>147</v>
@@ -3955,7 +3959,7 @@
         <v>148</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3963,7 +3967,7 @@
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
+        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>147</v>
@@ -3974,7 +3978,7 @@
         <v>148</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3982,7 +3986,7 @@
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
+        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>147</v>
@@ -3993,7 +3997,7 @@
         <v>148</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" ref="D25:D41" si="4">IF(B25="","",_xlfn.UNICHAR(RIGHT(B25,4)))</f>
@@ -4001,7 +4005,7 @@
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
+        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>147</v>
@@ -4012,7 +4016,7 @@
         <v>148</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4020,7 +4024,7 @@
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
+        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>147</v>
@@ -4031,7 +4035,7 @@
         <v>148</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4039,7 +4043,7 @@
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
+        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>147</v>
@@ -4050,7 +4054,7 @@
         <v>148</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4058,7 +4062,7 @@
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
+        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>147</v>

--- a/misc/チョロ書き用.xlsx
+++ b/misc/チョロ書き用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FontMod\bz_Narow_Font\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DEDA33-692F-4EBC-BA0F-4B32B77B93EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637FDA9-9E78-4885-B4C1-BC1DBE5E00F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="1140" windowWidth="28800" windowHeight="15225" activeTab="3" xr2:uid="{8B807924-754F-4D0C-9783-9CC77C547A93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{8B807924-754F-4D0C-9783-9CC77C547A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="AIが作った資料。ソース不明" sheetId="3" r:id="rId3"/>
     <sheet name="拡幅除外" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">拡幅除外!$B$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="261">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1"/>
@@ -365,177 +368,497 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>left</t>
+    <t>24EB</t>
+  </si>
+  <si>
+    <t>24EC</t>
+  </si>
+  <si>
+    <t>24ED</t>
+  </si>
+  <si>
+    <t>24EE</t>
+  </si>
+  <si>
+    <t>24EF</t>
+  </si>
+  <si>
+    <t>24F0</t>
+  </si>
+  <si>
+    <t>24F1</t>
+  </si>
+  <si>
+    <t>24F2</t>
+  </si>
+  <si>
+    <t>24F3</t>
+  </si>
+  <si>
+    <t>24F4</t>
+  </si>
+  <si>
+    <t>277A</t>
+  </si>
+  <si>
+    <t>277B</t>
+  </si>
+  <si>
+    <t>277C</t>
+  </si>
+  <si>
+    <t>277D</t>
+  </si>
+  <si>
+    <t>277E</t>
+  </si>
+  <si>
+    <t>277F</t>
+  </si>
+  <si>
+    <t>input
+(hex)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>right</t>
+    <t>input
+(dex)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>no</t>
+    <t>⓴</t>
+  </si>
+  <si>
+    <t>DEC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>24EB</t>
-  </si>
-  <si>
-    <t>24EC</t>
-  </si>
-  <si>
-    <t>24ED</t>
-  </si>
-  <si>
-    <t>24EE</t>
-  </si>
-  <si>
-    <t>24EF</t>
-  </si>
-  <si>
-    <t>24F0</t>
-  </si>
-  <si>
-    <t>24F1</t>
-  </si>
-  <si>
-    <t>24F2</t>
-  </si>
-  <si>
-    <t>24F3</t>
-  </si>
-  <si>
-    <t>24F4</t>
+    <t>HEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input
+(chr)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCRIPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right-side</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left-side</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓺</t>
+  </si>
+  <si>
+    <t>⓽</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>24FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◙</t>
+  </si>
+  <si>
+    <t>25d9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☻</t>
+  </si>
+  <si>
+    <t>⛖</t>
+  </si>
+  <si>
+    <t>�</t>
+  </si>
+  <si>
+    <t>🄌</t>
+  </si>
+  <si>
+    <t>🅐</t>
+  </si>
+  <si>
+    <t>FFFD</t>
+  </si>
+  <si>
+    <t>1F10C</t>
+  </si>
+  <si>
+    <t>✟</t>
+  </si>
+  <si>
+    <t>✙</t>
+  </si>
+  <si>
+    <t>✭</t>
+  </si>
+  <si>
+    <t>✮</t>
+  </si>
+  <si>
+    <t>♚</t>
+  </si>
+  <si>
+    <t>♛</t>
+  </si>
+  <si>
+    <t>♜</t>
+  </si>
+  <si>
+    <t>♝</t>
+  </si>
+  <si>
+    <t>♞</t>
+  </si>
+  <si>
+    <t>♟</t>
+  </si>
+  <si>
+    <t>➶</t>
+  </si>
+  <si>
+    <t>➴</t>
+  </si>
+  <si>
+    <t>☚</t>
+  </si>
+  <si>
+    <t>☛</t>
+  </si>
+  <si>
+    <t>✵</t>
+  </si>
+  <si>
+    <t>❁</t>
+  </si>
+  <si>
+    <t>♼</t>
+  </si>
+  <si>
+    <t>⛂</t>
+  </si>
+  <si>
+    <t>⛃</t>
+  </si>
+  <si>
+    <t>⛇</t>
+  </si>
+  <si>
+    <t>⛟</t>
+  </si>
+  <si>
+    <t>⛾</t>
+  </si>
+  <si>
+    <t>✎</t>
+  </si>
+  <si>
+    <t>✐</t>
+  </si>
+  <si>
+    <t>✛</t>
+  </si>
+  <si>
+    <t>✜</t>
+  </si>
+  <si>
+    <t>✬</t>
+  </si>
+  <si>
+    <t>✪</t>
+  </si>
+  <si>
+    <t>❂</t>
+  </si>
+  <si>
+    <t>ↇ</t>
+  </si>
+  <si>
+    <t>ↈ</t>
+  </si>
+  <si>
+    <t>⓫</t>
+  </si>
+  <si>
+    <t>⓬</t>
+  </si>
+  <si>
+    <t>⓭</t>
+  </si>
+  <si>
+    <t>⓮</t>
+  </si>
+  <si>
+    <t>⓯</t>
+  </si>
+  <si>
+    <t>⓰</t>
+  </si>
+  <si>
+    <t>⓱</t>
+  </si>
+  <si>
+    <t>⓲</t>
+  </si>
+  <si>
+    <t>⓳</t>
+  </si>
+  <si>
+    <t>⓵</t>
+  </si>
+  <si>
+    <t>⓶</t>
+  </si>
+  <si>
+    <t>⓷</t>
+  </si>
+  <si>
+    <t>⓸</t>
+  </si>
+  <si>
+    <t>⓹</t>
+  </si>
+  <si>
+    <t>⓻</t>
+  </si>
+  <si>
+    <t>⓼</t>
+  </si>
+  <si>
+    <t>⓾</t>
+  </si>
+  <si>
+    <t>⓿</t>
+  </si>
+  <si>
+    <t>❃</t>
+  </si>
+  <si>
+    <t>❖</t>
   </si>
   <si>
     <t>❶</t>
+  </si>
+  <si>
+    <t>❷</t>
+  </si>
+  <si>
+    <t>❸</t>
+  </si>
+  <si>
+    <t>❹</t>
+  </si>
+  <si>
+    <t>❺</t>
+  </si>
+  <si>
+    <t>❻</t>
+  </si>
+  <si>
+    <t>❼</t>
+  </si>
+  <si>
+    <t>❽</t>
+  </si>
+  <si>
+    <t>❾</t>
+  </si>
+  <si>
+    <t>❿</t>
+  </si>
+  <si>
+    <t>🅑</t>
+  </si>
+  <si>
+    <t>🅒</t>
+  </si>
+  <si>
+    <t>🅓</t>
+  </si>
+  <si>
+    <t>🅔</t>
+  </si>
+  <si>
+    <t>🅕</t>
+  </si>
+  <si>
+    <t>🅖</t>
+  </si>
+  <si>
+    <t>🅗</t>
+  </si>
+  <si>
+    <t>🅘</t>
+  </si>
+  <si>
+    <t>🅙</t>
+  </si>
+  <si>
+    <t>🅚</t>
+  </si>
+  <si>
+    <t>🅛</t>
+  </si>
+  <si>
+    <t>🅜</t>
+  </si>
+  <si>
+    <t>🅝</t>
+  </si>
+  <si>
+    <t>🅞</t>
+  </si>
+  <si>
+    <t>🅟</t>
+  </si>
+  <si>
+    <t>🅠</t>
+  </si>
+  <si>
+    <t>🅡</t>
+  </si>
+  <si>
+    <t>🅢</t>
+  </si>
+  <si>
+    <t>🅣</t>
+  </si>
+  <si>
+    <t>🅤</t>
+  </si>
+  <si>
+    <t>🅥</t>
+  </si>
+  <si>
+    <t>🅦</t>
+  </si>
+  <si>
+    <t>🅧</t>
+  </si>
+  <si>
+    <t>🅨</t>
+  </si>
+  <si>
+    <t>🅩</t>
+  </si>
+  <si>
+    <t>🅰</t>
+  </si>
+  <si>
+    <t>🅱</t>
+  </si>
+  <si>
+    <t>🅲</t>
+  </si>
+  <si>
+    <t>🅳</t>
+  </si>
+  <si>
+    <t>🅴</t>
+  </si>
+  <si>
+    <t>🅵</t>
+  </si>
+  <si>
+    <t>🅶</t>
+  </si>
+  <si>
+    <t>🅷</t>
+  </si>
+  <si>
+    <t>🅸</t>
+  </si>
+  <si>
+    <t>🅹</t>
+  </si>
+  <si>
+    <t>🅺</t>
+  </si>
+  <si>
+    <t>🅻</t>
+  </si>
+  <si>
+    <t>🅼</t>
+  </si>
+  <si>
+    <t>🅽</t>
+  </si>
+  <si>
+    <t>🅾</t>
+  </si>
+  <si>
+    <t>🅿</t>
+  </si>
+  <si>
+    <t>🆀</t>
+  </si>
+  <si>
+    <t>🆁</t>
+  </si>
+  <si>
+    <t>🆂</t>
+  </si>
+  <si>
+    <t>🆃</t>
+  </si>
+  <si>
+    <t>🆄</t>
+  </si>
+  <si>
+    <t>🆅</t>
+  </si>
+  <si>
+    <t>🆆</t>
+  </si>
+  <si>
+    <t>🆇</t>
+  </si>
+  <si>
+    <t>🆈</t>
+  </si>
+  <si>
+    <t>🆉</t>
+  </si>
+  <si>
+    <t>🆊</t>
+  </si>
+  <si>
+    <t>🆋</t>
+  </si>
+  <si>
+    <t>🆌</t>
+  </si>
+  <si>
+    <t>🆍</t>
+  </si>
+  <si>
+    <t>🆏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>❷</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❸</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❹</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❺</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❻</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❼</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❽</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❾</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>❿</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓫</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓬</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓭</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓮</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓰</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⓳</t>
-  </si>
-  <si>
-    <t>❖</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2756</t>
-  </si>
-  <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>2777</t>
-  </si>
-  <si>
-    <t>2778</t>
-  </si>
-  <si>
-    <t>2779</t>
-  </si>
-  <si>
-    <t>277A</t>
-  </si>
-  <si>
-    <t>277B</t>
-  </si>
-  <si>
-    <t>277C</t>
-  </si>
-  <si>
-    <t>277D</t>
-  </si>
-  <si>
-    <t>277E</t>
-  </si>
-  <si>
-    <t>277F</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if glyph.glyphname == ["</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"]: return</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"]:  ep = False</t>
+    <t>",</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,18 +866,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="UDEV Gothic (ysMod) HSJFNF"/>
+      <name val="BIZ UDゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="UDEV Gothic (ysMod) HSJFNF"/>
+      <name val="BIZ UDゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -570,7 +893,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="UDEV Gothic (ysMod) HSJFNF"/>
+      <name val="BIZ UDゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -584,19 +907,72 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="BIZ UDPゴシック"/>
+      <name val="BIZ UDゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="BIZ UDPゴシック"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="BIZ UDゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,13 +985,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -624,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,7 +1049,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,10 +1108,213 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7382389-A614-F80C-E179-BBF7BB84D64D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11664950" y="444500"/>
+          <a:ext cx="4133850" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>反転囲い文字などを除外するために作ったリスト。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>進数入力が優先。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>これは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>進数入力のオートフィルがコケる時対策なので。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SCRIPT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>側をこれから使うベースフォントに設定しておくと、該当グリフが当該フォントでどのような表示になるのかが明確でよき。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>if glyph.glyphname == [" "]:  ep = False</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="CUD推奨配色RGB背景白">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="CUD推奨配色RGB背景白">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -677,45 +1322,45 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="84919E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="D2D4D1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="DF5D35"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="FFF001"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="21AB7B"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="006DAA"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="60C4E4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="EB952D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="006DAA"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="A23180"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="UDEV Gothic (ysMod) HSJFNF">
+    <a:fontScheme name="BIZ UDゴシック">
       <a:majorFont>
-        <a:latin typeface="UDEV Gothic (ysMod) HSJFNF"/>
-        <a:ea typeface="UDEV Gothic (ysMod) HSJFNF"/>
+        <a:latin typeface="BIZ UDゴシック"/>
+        <a:ea typeface="BIZ UDゴシック"/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="UDEV Gothic (ysMod) HSJFNF"/>
-        <a:ea typeface="UDEV Gothic (ysMod) HSJFNF"/>
+        <a:latin typeface="BIZ UDゴシック"/>
+        <a:ea typeface="BIZ UDゴシック"/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
@@ -861,7 +1506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="CUD推奨配色RGB背景白" id="{874E4A27-B520-5F4D-A9FE-A4CD5AFF19B1}" vid="{825F4E14-BEB2-9F44-80A3-3A729780F278}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2244,13 +2889,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="1" max="2" width="35.08984375" customWidth="1"/>
     <col min="3" max="3" width="102.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2908,7 @@
         <v>VERSION = settings.get("DEFAULT", "Version")</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="13.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2276,7 +2921,7 @@
         <v>STROKE_WIDTH_SF = settings.get("DEFAULT", "Stroke_Width_SF")</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="13.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2289,7 +2934,7 @@
         <v>STROKE_WIDTH_MIN = settings.get("DEFAULT", "Stroke_Width_Min")</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="13.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2302,7 +2947,7 @@
         <v>STOROKE_HEIGHT = settings.get("DEFAULT", "Storoke_Height")</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13.5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2315,7 +2960,7 @@
         <v>STRWR_WEIGHT_HI = settings.get("DEFAULT", "StrWR_Weight_Hi")</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="13.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2328,7 +2973,7 @@
         <v>STRWR_WEIGHT_LO = settings.get("DEFAULT", "StrWR_Weight_Lo")</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13.5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2341,7 +2986,7 @@
         <v>STRWR_POINTS_HI = settings.get("DEFAULT", "StrWR_Points_Hi")</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +2999,7 @@
         <v>STRWR_POINTS_LO = settings.get("DEFAULT", "StrWR_Points_Lo")</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13.5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +3012,7 @@
         <v>REDUCE_RATIO_HI = settings.get("DEFAULT", "Reduce_Ratio_Hi")</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13.5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +3025,7 @@
         <v>REDUCE_RATIO_LO = settings.get("DEFAULT", "Reduce_Ratio_Lo")</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13.5">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2393,7 +3038,7 @@
         <v>PRESAVE_INTERVAL = settings.get("DEFAULT", "Presave_Interval")</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13.5">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2406,7 +3051,7 @@
         <v>IS_PROPORTIONAL_CUTOFF_VARIANCE = settings.get("DEFAULT", "is_proportional_cutoff_variance")</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13.5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +3064,7 @@
         <v>FONT_NAME = settings.get("DEFAULT", "Font_Name")</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="13.5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2432,7 +3077,7 @@
         <v>VERSION = settings.get("DEFAULT", "Version")</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13.5">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +3090,7 @@
         <v>SOURCE_FONTS_DIR = settings.get("DEFAULT", "Source_Fonts_Dir")</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="13.5">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2455,7 +3100,7 @@
         <v xml:space="preserve"> = settings.get("DEFAULT", "Source_Fonts_Name")</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="13.5">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2468,7 +3113,7 @@
         <v>BUILD_FONTS_DIR = settings.get("DEFAULT", "Build_Fonts_Dir")</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="13.5">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2496,17 +3141,17 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
+    <col min="5" max="5" width="49.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" customWidth="1"/>
+    <col min="12" max="12" width="49.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3231,1093 +3876,6298 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC871E9A-8DE7-43CD-B49C-4F8F71EEA01F}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="20.5"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.54296875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="7"/>
-    <col min="8" max="8" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="27.26953125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="65.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:11" ht="36" customHeight="1">
+      <c r="B1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>8583</v>
+      </c>
+      <c r="E2" s="19" t="str">
+        <f t="shared" ref="E2:E33" si="0">IF(B2="",IF(G2="","",_xlfn.UNICHAR(G2)),B2)</f>
+        <v>ↇ</v>
+      </c>
+      <c r="F2" s="13" t="str">
+        <f t="shared" ref="F2:F33" si="1">IF(B2="",IF(D2="",IF(C2="","",C2),DEC2HEX(D2)),DEC2HEX(_xlfn.UNICODE(B2)))</f>
+        <v>2187</v>
+      </c>
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:G33" si="2">IF(D2="",IF(C2="",IF(B2="","",_xlfn.UNICODE(B2)),HEX2DEC(C2)),D2)</f>
+        <v>8583</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="12" t="str">
+        <f t="shared" ref="I2:I33" si="3">IF(F2="","","uni"&amp;F2)</f>
+        <v>uni2187</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" s="10" t="str">
+        <f>ASC(_xlfn.CONCAT(H2:J2,"  # ",E2))</f>
+        <v xml:space="preserve">    "uni2187",  # ↇ</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>8584</v>
+      </c>
+      <c r="E3" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>ↈ</v>
+      </c>
+      <c r="F3" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>2188</v>
+      </c>
+      <c r="G3" s="13">
+        <f t="shared" si="2"/>
+        <v>8584</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni2188</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K3" s="10" t="str">
+        <f t="shared" ref="K3:K66" si="4">ASC(_xlfn.CONCAT(H3:J3,"  # ",E3))</f>
+        <v xml:space="preserve">    "uni2188",  # ↈ</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>IF(B2="","",_xlfn.UNICHAR(RIGHT(B2,4)))</f>
-        <v>ૄ</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>ASC(_xlfn.CONCAT(A2,"uni"&amp;B2,C2))</f>
-        <v>if glyph.glyphname == ["uni2756"]:  ep = False</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="6">
-        <f>_xlfn.UNICODE(G2)</f>
-        <v>10070</v>
-      </c>
-      <c r="I2" s="6" t="str">
-        <f>DEC2HEX(H2)</f>
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D24" si="0">IF(B3="","",_xlfn.UNICHAR(RIGHT(B3,4)))</f>
-        <v>૘</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E41" si="1">ASC(_xlfn.CONCAT(A3,"uni"&amp;B3,C3))</f>
-        <v>if glyph.glyphname == ["uni2776"]:  ep = False</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H22" si="2">_xlfn.UNICODE(G3)</f>
-        <v>10102</v>
-      </c>
-      <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I22" si="3">DEC2HEX(H3)</f>
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>૙</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni2777"]:  ep = False</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="2"/>
-        <v>10103</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>2777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>૚</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni2778"]:  ep = False</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="2"/>
-        <v>10104</v>
-      </c>
-      <c r="I5" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>2778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>૛</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni2779"]:  ep = False</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="2"/>
-        <v>10105</v>
-      </c>
-      <c r="I6" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>2779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277A"]:  ep = False</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="2"/>
-        <v>10106</v>
-      </c>
-      <c r="I7" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>277A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277B"]:  ep = False</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="2"/>
-        <v>10107</v>
-      </c>
-      <c r="I8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>277B</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277C"]:  ep = False</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="2"/>
-        <v>10108</v>
-      </c>
-      <c r="I9" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>277C</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277D"]:  ep = False</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="2"/>
-        <v>10109</v>
-      </c>
-      <c r="I10" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>277D</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277E"]:  ep = False</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="2"/>
-        <v>10110</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>277E</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni277F"]:  ep = False</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="2"/>
-        <v>10111</v>
-      </c>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>277F</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EB"]:  ep = False</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="D4" s="8">
+        <v>9451</v>
+      </c>
+      <c r="E4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓫</v>
+      </c>
+      <c r="F4" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24EB</v>
+      </c>
+      <c r="G4" s="13">
         <f t="shared" si="2"/>
         <v>9451</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="H4" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24EB</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EC"]:  ep = False</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="6">
+        <v>uni24EB</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24EB",  # ⓫</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9452</v>
+      </c>
+      <c r="E5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓬</v>
+      </c>
+      <c r="F5" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24EC</v>
+      </c>
+      <c r="G5" s="13">
         <f t="shared" si="2"/>
         <v>9452</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="H5" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24EC</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24ED"]:  ep = False</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="6">
+        <v>uni24EC</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24EC",  # ⓬</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9453</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓭</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24ED</v>
+      </c>
+      <c r="G6" s="13">
         <f t="shared" si="2"/>
         <v>9453</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="H6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24ED</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EE"]:  ep = False</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="6">
+        <v>uni24ED</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24ED",  # ⓭</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9454</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓮</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24EE</v>
+      </c>
+      <c r="G7" s="13">
         <f t="shared" si="2"/>
         <v>9454</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="H7" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24EE</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24EF"]:  ep = False</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="6">
+        <v>uni24EE</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24EE",  # ⓮</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9455</v>
+      </c>
+      <c r="E8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓯</v>
+      </c>
+      <c r="F8" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24EF</v>
+      </c>
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>9455</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="H8" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24EF</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F0"]:  ep = False</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="6">
+        <v>uni24EF</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24EF",  # ⓯</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9456</v>
+      </c>
+      <c r="E9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓰</v>
+      </c>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F0</v>
+      </c>
+      <c r="G9" s="13">
         <f t="shared" si="2"/>
         <v>9456</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="H9" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24F0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F1"]:  ep = False</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="6">
+        <v>uni24F0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F0",  # ⓰</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9457</v>
+      </c>
+      <c r="E10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓱</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F1</v>
+      </c>
+      <c r="G10" s="13">
         <f t="shared" si="2"/>
         <v>9457</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="H10" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24F1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F2"]:  ep = False</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="6">
+        <v>uni24F1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F1",  # ⓱</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="8">
+        <v>9458</v>
+      </c>
+      <c r="E11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓲</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F2</v>
+      </c>
+      <c r="G11" s="13">
         <f t="shared" si="2"/>
         <v>9458</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="H11" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24F2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F3"]:  ep = False</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="6">
+        <v>uni24F2</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F2",  # ⓲</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9459</v>
+      </c>
+      <c r="E12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓳</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F3</v>
+      </c>
+      <c r="G12" s="13">
         <f t="shared" si="2"/>
         <v>9459</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="H12" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24F3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni24F4"]:  ep = False</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="6">
+        <v>uni24F3</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F3",  # ⓳</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9460</v>
+      </c>
+      <c r="E13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓴</v>
+      </c>
+      <c r="F13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F4</v>
+      </c>
+      <c r="G13" s="13">
         <f t="shared" si="2"/>
         <v>9460</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="H13" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>24F4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6" t="s">
+        <v>uni24F4</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F4",  # ⓴</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>9461</v>
+      </c>
+      <c r="E14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓵</v>
+      </c>
+      <c r="F14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F5</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="2"/>
+        <v>9461</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24F5</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F5",  # ⓵</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>9462</v>
+      </c>
+      <c r="E15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓶</v>
+      </c>
+      <c r="F15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F6</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="2"/>
+        <v>9462</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24F6</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F6",  # ⓶</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>9463</v>
+      </c>
+      <c r="E16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓷</v>
+      </c>
+      <c r="F16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F7</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="2"/>
+        <v>9463</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24F7</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F7",  # ⓷</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
+        <v>9464</v>
+      </c>
+      <c r="E17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓸</v>
+      </c>
+      <c r="F17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F8</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
+        <v>9464</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24F8</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F8",  # ⓸</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>9465</v>
+      </c>
+      <c r="E18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓹</v>
+      </c>
+      <c r="F18" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24F9</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="2"/>
+        <v>9465</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24F9</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24F9",  # ⓹</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>9466</v>
+      </c>
+      <c r="E19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓺</v>
+      </c>
+      <c r="F19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24FA</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="2"/>
+        <v>9466</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24FA</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24FA",  # ⓺</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <v>9467</v>
+      </c>
+      <c r="E20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓻</v>
+      </c>
+      <c r="F20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24FB</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="2"/>
+        <v>9467</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24FB</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24FB",  # ⓻</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>9468</v>
+      </c>
+      <c r="E21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓼</v>
+      </c>
+      <c r="F21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24FC</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="2"/>
+        <v>9468</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24FC</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24FC",  # ⓼</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
+        <v>9469</v>
+      </c>
+      <c r="E22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓽</v>
+      </c>
+      <c r="F22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24FD</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="2"/>
+        <v>9469</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24FD</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24FD",  # ⓽</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
+        <v>9470</v>
+      </c>
+      <c r="E23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓾</v>
+      </c>
+      <c r="F23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24FE</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="2"/>
+        <v>9470</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I23" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24FE</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24FE",  # ⓾</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="8">
+        <v>9471</v>
+      </c>
+      <c r="E24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>⓿</v>
+      </c>
+      <c r="F24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>24FF</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="2"/>
+        <v>9471</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni24FF</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni24FF",  # ⓿</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="8">
+        <v>9689</v>
+      </c>
+      <c r="E25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>◙</v>
+      </c>
+      <c r="F25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>25D9</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="2"/>
+        <v>9689</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni25D9</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni25D9",  # ◙</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
+        <v>9754</v>
+      </c>
+      <c r="E26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>☚</v>
+      </c>
+      <c r="F26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>261A</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="2"/>
+        <v>9754</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni261A</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni261A",  # ☚</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <v>9755</v>
+      </c>
+      <c r="E27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>☛</v>
+      </c>
+      <c r="F27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>261B</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="2"/>
+        <v>9755</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni261B</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni261B",  # ☛</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
+        <v>9787</v>
+      </c>
+      <c r="E28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>☻</v>
+      </c>
+      <c r="F28" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>263B</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="2"/>
+        <v>9787</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I28" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni263B</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni263B",  # ☻</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
+        <v>9818</v>
+      </c>
+      <c r="E29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>♚</v>
+      </c>
+      <c r="F29" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>265A</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="2"/>
+        <v>9818</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni265A</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni265A",  # ♚</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
+        <v>9819</v>
+      </c>
+      <c r="E30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>♛</v>
+      </c>
+      <c r="F30" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>265B</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="2"/>
+        <v>9819</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni265B</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni265B",  # ♛</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <v>9820</v>
+      </c>
+      <c r="E31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>♜</v>
+      </c>
+      <c r="F31" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>265C</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="2"/>
+        <v>9820</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I31" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni265C</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni265C",  # ♜</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
+        <v>9821</v>
+      </c>
+      <c r="E32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>♝</v>
+      </c>
+      <c r="F32" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>265D</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="2"/>
+        <v>9821</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni265D</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni265D",  # ♝</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" ref="D25:D41" si="4">IF(B25="","",_xlfn.UNICHAR(RIGHT(B25,4)))</f>
-        <v/>
-      </c>
-      <c r="E25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="6" t="str">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>9822</v>
+      </c>
+      <c r="E33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>♞</v>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>265E</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="2"/>
+        <v>9822</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>uni265E</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="6" t="str">
+        <v xml:space="preserve">    "uni265E",  # ♞</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
+        <v>9823</v>
+      </c>
+      <c r="E34" s="19" t="str">
+        <f t="shared" ref="E34:E65" si="5">IF(B34="",IF(G34="","",_xlfn.UNICHAR(G34)),B34)</f>
+        <v>♟</v>
+      </c>
+      <c r="F34" s="13" t="str">
+        <f t="shared" ref="F34:F65" si="6">IF(B34="",IF(D34="",IF(C34="","",C34),DEC2HEX(D34)),DEC2HEX(_xlfn.UNICODE(B34)))</f>
+        <v>265F</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" ref="G34:G65" si="7">IF(D34="",IF(C34="",IF(B34="","",_xlfn.UNICODE(B34)),HEX2DEC(C34)),D34)</f>
+        <v>9823</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="12" t="str">
+        <f t="shared" ref="I34:I65" si="8">IF(F34="","","uni"&amp;F34)</f>
+        <v>uni265F</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="6" t="str">
+        <v xml:space="preserve">    "uni265F",  # ♟</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
+        <v>9852</v>
+      </c>
+      <c r="E35" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>♼</v>
+      </c>
+      <c r="F35" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>267C</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="7"/>
+        <v>9852</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni267C</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]:  ep = False</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="6" t="str">
+        <v xml:space="preserve">    "uni267C",  # ♼</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>9922</v>
+      </c>
+      <c r="E36" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>⛂</v>
+      </c>
+      <c r="F36" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>26C2</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="7"/>
+        <v>9922</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni26C2</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="6" t="str">
+        <v xml:space="preserve">    "uni26C2",  # ⛂</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>9923</v>
+      </c>
+      <c r="E37" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>⛃</v>
+      </c>
+      <c r="F37" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>26C3</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="7"/>
+        <v>9923</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I37" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni26C3</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="6" t="str">
+        <v xml:space="preserve">    "uni26C3",  # ⛃</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
+        <v>9927</v>
+      </c>
+      <c r="E38" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>⛇</v>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>26C7</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="7"/>
+        <v>9927</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni26C7</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="6" t="str">
+        <v xml:space="preserve">    "uni26C7",  # ⛇</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
+        <v>9942</v>
+      </c>
+      <c r="E39" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>⛖</v>
+      </c>
+      <c r="F39" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>26D6</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="7"/>
+        <v>9942</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni26D6</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="6" t="str">
+        <v xml:space="preserve">    "uni26D6",  # ⛖</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
+        <v>9951</v>
+      </c>
+      <c r="E40" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>⛟</v>
+      </c>
+      <c r="F40" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>26DF</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="7"/>
+        <v>9951</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni26DF</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K40" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="6" t="str">
+        <v xml:space="preserve">    "uni26DF",  # ⛟</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8">
+        <v>9982</v>
+      </c>
+      <c r="E41" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>⛾</v>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>26FE</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="7"/>
+        <v>9982</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni26FE</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K41" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="6" t="str">
+        <v xml:space="preserve">    "uni26FE",  # ⛾</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
+        <v>9998</v>
+      </c>
+      <c r="E42" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✎</v>
+      </c>
+      <c r="F42" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>270E</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="7"/>
+        <v>9998</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni270E</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="6" t="str">
+        <v xml:space="preserve">    "uni270E",  # ✎</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✐</v>
+      </c>
+      <c r="F43" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2710</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I43" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2710</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K43" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="6" t="str">
+        <v xml:space="preserve">    "uni2710",  # ✐</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8">
+        <v>10009</v>
+      </c>
+      <c r="E44" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✙</v>
+      </c>
+      <c r="F44" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2719</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="7"/>
+        <v>10009</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I44" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2719</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K44" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="6" t="str">
+        <v xml:space="preserve">    "uni2719",  # ✙</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8">
+        <v>10011</v>
+      </c>
+      <c r="E45" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✛</v>
+      </c>
+      <c r="F45" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>271B</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="7"/>
+        <v>10011</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni271B</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K45" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="6" t="str">
+        <v xml:space="preserve">    "uni271B",  # ✛</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8">
+        <v>10012</v>
+      </c>
+      <c r="E46" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✜</v>
+      </c>
+      <c r="F46" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>271C</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="7"/>
+        <v>10012</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I46" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni271C</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="6" t="str">
+        <v xml:space="preserve">    "uni271C",  # ✜</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8">
+        <v>10015</v>
+      </c>
+      <c r="E47" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✟</v>
+      </c>
+      <c r="F47" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>271F</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="7"/>
+        <v>10015</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni271F</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K47" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="6" t="str">
+        <v xml:space="preserve">    "uni271F",  # ✟</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8">
+        <v>10026</v>
+      </c>
+      <c r="E48" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✪</v>
+      </c>
+      <c r="F48" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>272A</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="7"/>
+        <v>10026</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I48" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni272A</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K48" s="10" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>if glyph.glyphname == ["uni"]: return</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>147</v>
+        <v xml:space="preserve">    "uni272A",  # ✪</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8">
+        <v>10028</v>
+      </c>
+      <c r="E49" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✬</v>
+      </c>
+      <c r="F49" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>272C</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="7"/>
+        <v>10028</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I49" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni272C</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K49" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni272C",  # ✬</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8">
+        <v>10029</v>
+      </c>
+      <c r="E50" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✭</v>
+      </c>
+      <c r="F50" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>272D</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="7"/>
+        <v>10029</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I50" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni272D</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K50" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni272D",  # ✭</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8">
+        <v>10030</v>
+      </c>
+      <c r="E51" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✮</v>
+      </c>
+      <c r="F51" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>272E</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="7"/>
+        <v>10030</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni272E</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K51" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni272E",  # ✮</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8">
+        <v>10037</v>
+      </c>
+      <c r="E52" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>✵</v>
+      </c>
+      <c r="F52" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2735</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="7"/>
+        <v>10037</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I52" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2735</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K52" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2735",  # ✵</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8">
+        <v>10049</v>
+      </c>
+      <c r="E53" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❁</v>
+      </c>
+      <c r="F53" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2741</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="7"/>
+        <v>10049</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I53" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2741</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K53" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2741",  # ❁</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8">
+        <v>10050</v>
+      </c>
+      <c r="E54" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❂</v>
+      </c>
+      <c r="F54" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2742</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="7"/>
+        <v>10050</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I54" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2742</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K54" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2742",  # ❂</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8">
+        <v>10051</v>
+      </c>
+      <c r="E55" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❃</v>
+      </c>
+      <c r="F55" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2743</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="7"/>
+        <v>10051</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I55" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2743</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K55" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2743",  # ❃</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2756</v>
+      </c>
+      <c r="D56" s="8">
+        <v>10070</v>
+      </c>
+      <c r="E56" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❖</v>
+      </c>
+      <c r="F56" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2756</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="7"/>
+        <v>10070</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I56" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2756</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K56" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2756",  # ❖</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2776</v>
+      </c>
+      <c r="D57" s="8">
+        <v>10102</v>
+      </c>
+      <c r="E57" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❶</v>
+      </c>
+      <c r="F57" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2776</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" si="7"/>
+        <v>10102</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I57" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2776</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K57" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2776",  # ❶</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2777</v>
+      </c>
+      <c r="D58" s="8">
+        <v>10103</v>
+      </c>
+      <c r="E58" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❷</v>
+      </c>
+      <c r="F58" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2777</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" si="7"/>
+        <v>10103</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I58" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2777</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K58" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2777",  # ❷</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2778</v>
+      </c>
+      <c r="D59" s="8">
+        <v>10104</v>
+      </c>
+      <c r="E59" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❸</v>
+      </c>
+      <c r="F59" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2778</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" si="7"/>
+        <v>10104</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I59" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2778</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K59" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2778",  # ❸</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2779</v>
+      </c>
+      <c r="D60" s="8">
+        <v>10105</v>
+      </c>
+      <c r="E60" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❹</v>
+      </c>
+      <c r="F60" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>2779</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="7"/>
+        <v>10105</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I60" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni2779</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K60" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni2779",  # ❹</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="8">
+        <v>10106</v>
+      </c>
+      <c r="E61" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❺</v>
+      </c>
+      <c r="F61" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>277A</v>
+      </c>
+      <c r="G61" s="13">
+        <f t="shared" si="7"/>
+        <v>10106</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I61" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni277A</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K61" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni277A",  # ❺</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="8">
+        <v>10107</v>
+      </c>
+      <c r="E62" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❻</v>
+      </c>
+      <c r="F62" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>277B</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" si="7"/>
+        <v>10107</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I62" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni277B</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni277B",  # ❻</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="8">
+        <v>10108</v>
+      </c>
+      <c r="E63" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❼</v>
+      </c>
+      <c r="F63" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>277C</v>
+      </c>
+      <c r="G63" s="13">
+        <f t="shared" si="7"/>
+        <v>10108</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I63" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni277C</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K63" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni277C",  # ❼</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="8">
+        <v>10109</v>
+      </c>
+      <c r="E64" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❽</v>
+      </c>
+      <c r="F64" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>277D</v>
+      </c>
+      <c r="G64" s="13">
+        <f t="shared" si="7"/>
+        <v>10109</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I64" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni277D</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K64" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni277D",  # ❽</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="8">
+        <v>10110</v>
+      </c>
+      <c r="E65" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v>❾</v>
+      </c>
+      <c r="F65" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>277E</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" si="7"/>
+        <v>10110</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I65" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>uni277E</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K65" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni277E",  # ❾</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="8">
+        <v>10111</v>
+      </c>
+      <c r="E66" s="19" t="str">
+        <f t="shared" ref="E66:E97" si="9">IF(B66="",IF(G66="","",_xlfn.UNICHAR(G66)),B66)</f>
+        <v>❿</v>
+      </c>
+      <c r="F66" s="13" t="str">
+        <f t="shared" ref="F66:F97" si="10">IF(B66="",IF(D66="",IF(C66="","",C66),DEC2HEX(D66)),DEC2HEX(_xlfn.UNICODE(B66)))</f>
+        <v>277F</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" ref="G66:G97" si="11">IF(D66="",IF(C66="",IF(B66="","",_xlfn.UNICODE(B66)),HEX2DEC(C66)),D66)</f>
+        <v>10111</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I66" s="12" t="str">
+        <f t="shared" ref="I66:I97" si="12">IF(F66="","","uni"&amp;F66)</f>
+        <v>uni277F</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K66" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    "uni277F",  # ❿</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8">
+        <v>10164</v>
+      </c>
+      <c r="E67" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>➴</v>
+      </c>
+      <c r="F67" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>27B4</v>
+      </c>
+      <c r="G67" s="13">
+        <f t="shared" si="11"/>
+        <v>10164</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I67" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni27B4</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K67" s="10" t="str">
+        <f t="shared" ref="K67:K130" si="13">ASC(_xlfn.CONCAT(H67:J67,"  # ",E67))</f>
+        <v xml:space="preserve">    "uni27B4",  # ➴</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8">
+        <v>10166</v>
+      </c>
+      <c r="E68" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>➶</v>
+      </c>
+      <c r="F68" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>27B6</v>
+      </c>
+      <c r="G68" s="13">
+        <f t="shared" si="11"/>
+        <v>10166</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I68" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni27B6</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K68" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni27B6",  # ➶</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="8">
+        <v>65533</v>
+      </c>
+      <c r="E69" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>�</v>
+      </c>
+      <c r="F69" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>FFFD</v>
+      </c>
+      <c r="G69" s="13">
+        <f t="shared" si="11"/>
+        <v>65533</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I69" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uniFFFD</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K69" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uniFFFD",  # �</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="8">
+        <v>127244</v>
+      </c>
+      <c r="E70" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🄌</v>
+      </c>
+      <c r="F70" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F10C</v>
+      </c>
+      <c r="G70" s="13">
+        <f t="shared" si="11"/>
+        <v>127244</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I70" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F10C</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K70" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F10C",  # 🄌</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8">
+        <v>127312</v>
+      </c>
+      <c r="E71" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅐</v>
+      </c>
+      <c r="F71" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F150</v>
+      </c>
+      <c r="G71" s="13">
+        <f t="shared" si="11"/>
+        <v>127312</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I71" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F150</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K71" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F150",  # 🅐</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8">
+        <v>127313</v>
+      </c>
+      <c r="E72" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅑</v>
+      </c>
+      <c r="F72" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F151</v>
+      </c>
+      <c r="G72" s="13">
+        <f t="shared" si="11"/>
+        <v>127313</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I72" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F151</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K72" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F151",  # 🅑</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8">
+        <v>127314</v>
+      </c>
+      <c r="E73" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅒</v>
+      </c>
+      <c r="F73" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F152</v>
+      </c>
+      <c r="G73" s="13">
+        <f t="shared" si="11"/>
+        <v>127314</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I73" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F152</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K73" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F152",  # 🅒</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8">
+        <v>127315</v>
+      </c>
+      <c r="E74" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅓</v>
+      </c>
+      <c r="F74" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F153</v>
+      </c>
+      <c r="G74" s="13">
+        <f t="shared" si="11"/>
+        <v>127315</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I74" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F153</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K74" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F153",  # 🅓</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8">
+        <v>127316</v>
+      </c>
+      <c r="E75" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅔</v>
+      </c>
+      <c r="F75" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F154</v>
+      </c>
+      <c r="G75" s="13">
+        <f t="shared" si="11"/>
+        <v>127316</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I75" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F154</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K75" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F154",  # 🅔</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8">
+        <v>127317</v>
+      </c>
+      <c r="E76" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅕</v>
+      </c>
+      <c r="F76" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F155</v>
+      </c>
+      <c r="G76" s="13">
+        <f t="shared" si="11"/>
+        <v>127317</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I76" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F155</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K76" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F155",  # 🅕</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8">
+        <v>127318</v>
+      </c>
+      <c r="E77" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅖</v>
+      </c>
+      <c r="F77" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F156</v>
+      </c>
+      <c r="G77" s="13">
+        <f t="shared" si="11"/>
+        <v>127318</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I77" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F156</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K77" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F156",  # 🅖</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8">
+        <v>127319</v>
+      </c>
+      <c r="E78" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅗</v>
+      </c>
+      <c r="F78" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F157</v>
+      </c>
+      <c r="G78" s="13">
+        <f t="shared" si="11"/>
+        <v>127319</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I78" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F157</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K78" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F157",  # 🅗</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8">
+        <v>127320</v>
+      </c>
+      <c r="E79" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅘</v>
+      </c>
+      <c r="F79" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F158</v>
+      </c>
+      <c r="G79" s="13">
+        <f t="shared" si="11"/>
+        <v>127320</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I79" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F158</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K79" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F158",  # 🅘</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8">
+        <v>127321</v>
+      </c>
+      <c r="E80" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅙</v>
+      </c>
+      <c r="F80" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F159</v>
+      </c>
+      <c r="G80" s="13">
+        <f t="shared" si="11"/>
+        <v>127321</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I80" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F159</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K80" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F159",  # 🅙</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8">
+        <v>127322</v>
+      </c>
+      <c r="E81" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅚</v>
+      </c>
+      <c r="F81" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F15A</v>
+      </c>
+      <c r="G81" s="13">
+        <f t="shared" si="11"/>
+        <v>127322</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I81" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F15A</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K81" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F15A",  # 🅚</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8">
+        <v>127323</v>
+      </c>
+      <c r="E82" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅛</v>
+      </c>
+      <c r="F82" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F15B</v>
+      </c>
+      <c r="G82" s="13">
+        <f t="shared" si="11"/>
+        <v>127323</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I82" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F15B</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K82" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F15B",  # 🅛</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8">
+        <v>127324</v>
+      </c>
+      <c r="E83" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅜</v>
+      </c>
+      <c r="F83" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F15C</v>
+      </c>
+      <c r="G83" s="13">
+        <f t="shared" si="11"/>
+        <v>127324</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I83" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F15C</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K83" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F15C",  # 🅜</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8">
+        <v>127325</v>
+      </c>
+      <c r="E84" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅝</v>
+      </c>
+      <c r="F84" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F15D</v>
+      </c>
+      <c r="G84" s="13">
+        <f t="shared" si="11"/>
+        <v>127325</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I84" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F15D</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K84" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F15D",  # 🅝</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8">
+        <v>127326</v>
+      </c>
+      <c r="E85" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅞</v>
+      </c>
+      <c r="F85" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F15E</v>
+      </c>
+      <c r="G85" s="13">
+        <f t="shared" si="11"/>
+        <v>127326</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I85" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F15E</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K85" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F15E",  # 🅞</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8">
+        <v>127327</v>
+      </c>
+      <c r="E86" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅟</v>
+      </c>
+      <c r="F86" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F15F</v>
+      </c>
+      <c r="G86" s="13">
+        <f t="shared" si="11"/>
+        <v>127327</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F15F</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K86" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F15F",  # 🅟</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8">
+        <v>127328</v>
+      </c>
+      <c r="E87" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅠</v>
+      </c>
+      <c r="F87" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F160</v>
+      </c>
+      <c r="G87" s="13">
+        <f t="shared" si="11"/>
+        <v>127328</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I87" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F160</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K87" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F160",  # 🅠</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8">
+        <v>127329</v>
+      </c>
+      <c r="E88" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅡</v>
+      </c>
+      <c r="F88" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F161</v>
+      </c>
+      <c r="G88" s="13">
+        <f t="shared" si="11"/>
+        <v>127329</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I88" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F161</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K88" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F161",  # 🅡</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8">
+        <v>127330</v>
+      </c>
+      <c r="E89" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅢</v>
+      </c>
+      <c r="F89" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F162</v>
+      </c>
+      <c r="G89" s="13">
+        <f t="shared" si="11"/>
+        <v>127330</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I89" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F162</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K89" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F162",  # 🅢</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8">
+        <v>127331</v>
+      </c>
+      <c r="E90" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅣</v>
+      </c>
+      <c r="F90" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F163</v>
+      </c>
+      <c r="G90" s="13">
+        <f t="shared" si="11"/>
+        <v>127331</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I90" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F163</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K90" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F163",  # 🅣</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8">
+        <v>127332</v>
+      </c>
+      <c r="E91" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅤</v>
+      </c>
+      <c r="F91" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F164</v>
+      </c>
+      <c r="G91" s="13">
+        <f t="shared" si="11"/>
+        <v>127332</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I91" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F164</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K91" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F164",  # 🅤</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8">
+        <v>127333</v>
+      </c>
+      <c r="E92" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅥</v>
+      </c>
+      <c r="F92" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F165</v>
+      </c>
+      <c r="G92" s="13">
+        <f t="shared" si="11"/>
+        <v>127333</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I92" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F165</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K92" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F165",  # 🅥</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8">
+        <v>127334</v>
+      </c>
+      <c r="E93" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅦</v>
+      </c>
+      <c r="F93" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F166</v>
+      </c>
+      <c r="G93" s="13">
+        <f t="shared" si="11"/>
+        <v>127334</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I93" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F166</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K93" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F166",  # 🅦</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8">
+        <v>127335</v>
+      </c>
+      <c r="E94" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅧</v>
+      </c>
+      <c r="F94" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F167</v>
+      </c>
+      <c r="G94" s="13">
+        <f t="shared" si="11"/>
+        <v>127335</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I94" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F167</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K94" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F167",  # 🅧</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8">
+        <v>127336</v>
+      </c>
+      <c r="E95" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅨</v>
+      </c>
+      <c r="F95" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F168</v>
+      </c>
+      <c r="G95" s="13">
+        <f t="shared" si="11"/>
+        <v>127336</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I95" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F168</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K95" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F168",  # 🅨</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8">
+        <v>127337</v>
+      </c>
+      <c r="E96" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅩</v>
+      </c>
+      <c r="F96" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F169</v>
+      </c>
+      <c r="G96" s="13">
+        <f t="shared" si="11"/>
+        <v>127337</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I96" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F169</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K96" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F169",  # 🅩</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8">
+        <v>127344</v>
+      </c>
+      <c r="E97" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>🅰</v>
+      </c>
+      <c r="F97" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>1F170</v>
+      </c>
+      <c r="G97" s="13">
+        <f t="shared" si="11"/>
+        <v>127344</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I97" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>uni1F170</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K97" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F170",  # 🅰</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8">
+        <v>127345</v>
+      </c>
+      <c r="E98" s="19" t="str">
+        <f t="shared" ref="E98:E127" si="14">IF(B98="",IF(G98="","",_xlfn.UNICHAR(G98)),B98)</f>
+        <v>🅱</v>
+      </c>
+      <c r="F98" s="13" t="str">
+        <f t="shared" ref="F98:F127" si="15">IF(B98="",IF(D98="",IF(C98="","",C98),DEC2HEX(D98)),DEC2HEX(_xlfn.UNICODE(B98)))</f>
+        <v>1F171</v>
+      </c>
+      <c r="G98" s="13">
+        <f t="shared" ref="G98:G127" si="16">IF(D98="",IF(C98="",IF(B98="","",_xlfn.UNICODE(B98)),HEX2DEC(C98)),D98)</f>
+        <v>127345</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I98" s="12" t="str">
+        <f t="shared" ref="I98:I127" si="17">IF(F98="","","uni"&amp;F98)</f>
+        <v>uni1F171</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K98" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F171",  # 🅱</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8">
+        <v>127346</v>
+      </c>
+      <c r="E99" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅲</v>
+      </c>
+      <c r="F99" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F172</v>
+      </c>
+      <c r="G99" s="13">
+        <f t="shared" si="16"/>
+        <v>127346</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I99" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F172</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K99" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F172",  # 🅲</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8">
+        <v>127347</v>
+      </c>
+      <c r="E100" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅳</v>
+      </c>
+      <c r="F100" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F173</v>
+      </c>
+      <c r="G100" s="13">
+        <f t="shared" si="16"/>
+        <v>127347</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I100" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F173</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K100" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F173",  # 🅳</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8">
+        <v>127348</v>
+      </c>
+      <c r="E101" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅴</v>
+      </c>
+      <c r="F101" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F174</v>
+      </c>
+      <c r="G101" s="13">
+        <f t="shared" si="16"/>
+        <v>127348</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I101" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F174</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K101" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F174",  # 🅴</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8">
+        <v>127349</v>
+      </c>
+      <c r="E102" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅵</v>
+      </c>
+      <c r="F102" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F175</v>
+      </c>
+      <c r="G102" s="13">
+        <f t="shared" si="16"/>
+        <v>127349</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I102" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F175</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K102" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F175",  # 🅵</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8">
+        <v>127350</v>
+      </c>
+      <c r="E103" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅶</v>
+      </c>
+      <c r="F103" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F176</v>
+      </c>
+      <c r="G103" s="13">
+        <f t="shared" si="16"/>
+        <v>127350</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I103" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F176</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K103" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F176",  # 🅶</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8">
+        <v>127351</v>
+      </c>
+      <c r="E104" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅷</v>
+      </c>
+      <c r="F104" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F177</v>
+      </c>
+      <c r="G104" s="13">
+        <f t="shared" si="16"/>
+        <v>127351</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I104" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F177</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K104" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F177",  # 🅷</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8">
+        <v>127352</v>
+      </c>
+      <c r="E105" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅸</v>
+      </c>
+      <c r="F105" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F178</v>
+      </c>
+      <c r="G105" s="13">
+        <f t="shared" si="16"/>
+        <v>127352</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I105" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F178</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K105" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F178",  # 🅸</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8">
+        <v>127353</v>
+      </c>
+      <c r="E106" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅹</v>
+      </c>
+      <c r="F106" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F179</v>
+      </c>
+      <c r="G106" s="13">
+        <f t="shared" si="16"/>
+        <v>127353</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I106" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F179</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K106" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F179",  # 🅹</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8">
+        <v>127354</v>
+      </c>
+      <c r="E107" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅺</v>
+      </c>
+      <c r="F107" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F17A</v>
+      </c>
+      <c r="G107" s="13">
+        <f t="shared" si="16"/>
+        <v>127354</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I107" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F17A</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K107" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F17A",  # 🅺</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8">
+        <v>127355</v>
+      </c>
+      <c r="E108" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅻</v>
+      </c>
+      <c r="F108" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F17B</v>
+      </c>
+      <c r="G108" s="13">
+        <f t="shared" si="16"/>
+        <v>127355</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I108" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F17B</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K108" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F17B",  # 🅻</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8">
+        <v>127356</v>
+      </c>
+      <c r="E109" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅼</v>
+      </c>
+      <c r="F109" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F17C</v>
+      </c>
+      <c r="G109" s="13">
+        <f t="shared" si="16"/>
+        <v>127356</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I109" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F17C</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K109" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F17C",  # 🅼</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8">
+        <v>127357</v>
+      </c>
+      <c r="E110" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅽</v>
+      </c>
+      <c r="F110" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F17D</v>
+      </c>
+      <c r="G110" s="13">
+        <f t="shared" si="16"/>
+        <v>127357</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I110" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F17D</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K110" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F17D",  # 🅽</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8">
+        <v>127358</v>
+      </c>
+      <c r="E111" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅾</v>
+      </c>
+      <c r="F111" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F17E</v>
+      </c>
+      <c r="G111" s="13">
+        <f t="shared" si="16"/>
+        <v>127358</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I111" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F17E</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K111" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F17E",  # 🅾</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8">
+        <v>127359</v>
+      </c>
+      <c r="E112" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🅿</v>
+      </c>
+      <c r="F112" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F17F</v>
+      </c>
+      <c r="G112" s="13">
+        <f t="shared" si="16"/>
+        <v>127359</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I112" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F17F</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K112" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F17F",  # 🅿</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8">
+        <v>127360</v>
+      </c>
+      <c r="E113" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆀</v>
+      </c>
+      <c r="F113" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F180</v>
+      </c>
+      <c r="G113" s="13">
+        <f t="shared" si="16"/>
+        <v>127360</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I113" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F180</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K113" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F180",  # 🆀</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8">
+        <v>127361</v>
+      </c>
+      <c r="E114" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆁</v>
+      </c>
+      <c r="F114" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F181</v>
+      </c>
+      <c r="G114" s="13">
+        <f t="shared" si="16"/>
+        <v>127361</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I114" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F181</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K114" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F181",  # 🆁</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8">
+        <v>127362</v>
+      </c>
+      <c r="E115" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆂</v>
+      </c>
+      <c r="F115" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F182</v>
+      </c>
+      <c r="G115" s="13">
+        <f t="shared" si="16"/>
+        <v>127362</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I115" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F182</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K115" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F182",  # 🆂</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11">
+      <c r="B116" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8">
+        <v>127363</v>
+      </c>
+      <c r="E116" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆃</v>
+      </c>
+      <c r="F116" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F183</v>
+      </c>
+      <c r="G116" s="13">
+        <f t="shared" si="16"/>
+        <v>127363</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I116" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F183</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K116" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F183",  # 🆃</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8">
+        <v>127364</v>
+      </c>
+      <c r="E117" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆄</v>
+      </c>
+      <c r="F117" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F184</v>
+      </c>
+      <c r="G117" s="13">
+        <f t="shared" si="16"/>
+        <v>127364</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I117" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F184</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K117" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F184",  # 🆄</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8">
+        <v>127365</v>
+      </c>
+      <c r="E118" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆅</v>
+      </c>
+      <c r="F118" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F185</v>
+      </c>
+      <c r="G118" s="13">
+        <f t="shared" si="16"/>
+        <v>127365</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I118" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F185</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K118" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F185",  # 🆅</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8">
+        <v>127366</v>
+      </c>
+      <c r="E119" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆆</v>
+      </c>
+      <c r="F119" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F186</v>
+      </c>
+      <c r="G119" s="13">
+        <f t="shared" si="16"/>
+        <v>127366</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I119" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F186</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K119" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F186",  # 🆆</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11">
+      <c r="B120" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8">
+        <v>127367</v>
+      </c>
+      <c r="E120" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆇</v>
+      </c>
+      <c r="F120" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F187</v>
+      </c>
+      <c r="G120" s="13">
+        <f t="shared" si="16"/>
+        <v>127367</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I120" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F187</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K120" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F187",  # 🆇</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11">
+      <c r="B121" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8">
+        <v>127368</v>
+      </c>
+      <c r="E121" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆈</v>
+      </c>
+      <c r="F121" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F188</v>
+      </c>
+      <c r="G121" s="13">
+        <f t="shared" si="16"/>
+        <v>127368</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I121" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F188</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K121" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F188",  # 🆈</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8">
+        <v>127369</v>
+      </c>
+      <c r="E122" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆉</v>
+      </c>
+      <c r="F122" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F189</v>
+      </c>
+      <c r="G122" s="13">
+        <f t="shared" si="16"/>
+        <v>127369</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I122" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F189</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K122" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F189",  # 🆉</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8">
+        <v>127370</v>
+      </c>
+      <c r="E123" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆊</v>
+      </c>
+      <c r="F123" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F18A</v>
+      </c>
+      <c r="G123" s="13">
+        <f t="shared" si="16"/>
+        <v>127370</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I123" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F18A</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K123" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F18A",  # 🆊</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8">
+        <v>127371</v>
+      </c>
+      <c r="E124" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆋</v>
+      </c>
+      <c r="F124" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F18B</v>
+      </c>
+      <c r="G124" s="13">
+        <f t="shared" si="16"/>
+        <v>127371</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I124" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F18B</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K124" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F18B",  # 🆋</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8">
+        <v>127372</v>
+      </c>
+      <c r="E125" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆌</v>
+      </c>
+      <c r="F125" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F18C</v>
+      </c>
+      <c r="G125" s="13">
+        <f t="shared" si="16"/>
+        <v>127372</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I125" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F18C</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K125" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F18C",  # 🆌</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8">
+        <v>127373</v>
+      </c>
+      <c r="E126" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆍</v>
+      </c>
+      <c r="F126" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F18D</v>
+      </c>
+      <c r="G126" s="13">
+        <f t="shared" si="16"/>
+        <v>127373</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I126" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F18D</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K126" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F18D",  # 🆍</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8">
+        <v>127375</v>
+      </c>
+      <c r="E127" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v>🆏</v>
+      </c>
+      <c r="F127" s="13" t="str">
+        <f t="shared" si="15"/>
+        <v>1F18F</v>
+      </c>
+      <c r="G127" s="13">
+        <f t="shared" si="16"/>
+        <v>127375</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I127" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>uni1F18F</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K127" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "uni1F18F",  # 🆏</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" ht="26">
+      <c r="B128" s="14"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="19" t="str">
+        <f t="shared" ref="E128:E183" si="18">IF(B128="",IF(G128="","",_xlfn.UNICHAR(G128)),B128)</f>
+        <v/>
+      </c>
+      <c r="F128" s="13" t="str">
+        <f t="shared" ref="F128:F183" si="19">IF(B128="",IF(D128="",IF(C128="","",C128),DEC2HEX(D128)),DEC2HEX(_xlfn.UNICODE(B128)))</f>
+        <v/>
+      </c>
+      <c r="G128" s="13" t="str">
+        <f t="shared" ref="G128:G183" si="20">IF(D128="",IF(C128="",IF(B128="","",_xlfn.UNICODE(B128)),HEX2DEC(C128)),D128)</f>
+        <v/>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I128" s="12" t="str">
+        <f t="shared" ref="I128:I183" si="21">IF(F128="","","uni"&amp;F128)</f>
+        <v/>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K128" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="15"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F129" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G129" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I129" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K129" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="15"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F130" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G130" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I130" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K130" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" s="15"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F131" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G131" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I131" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K131" s="10" t="str">
+        <f t="shared" ref="K131:K184" si="22">ASC(_xlfn.CONCAT(H131:J131,"  # ",E131))</f>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="15"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F132" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G132" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I132" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K132" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="15"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F133" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G133" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I133" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K133" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="15"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F134" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G134" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I134" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K134" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" s="15"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F135" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G135" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I135" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K135" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" s="15"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F136" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G136" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I136" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K136" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="15"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F137" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G137" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I137" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K137" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="15"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F138" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G138" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I138" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K138" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="139" spans="2:11">
+      <c r="B139" s="15"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F139" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G139" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I139" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K139" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="15"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F140" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G140" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I140" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K140" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="15"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F141" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G141" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I141" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K141" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="15"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F142" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G142" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I142" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K142" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="15"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F143" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G143" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I143" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K143" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="15"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F144" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G144" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I144" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K144" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="15"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F145" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G145" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I145" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K145" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="15"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F146" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G146" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I146" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K146" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="15"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F147" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G147" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I147" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K147" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="15"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F148" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G148" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I148" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K148" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="15"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F149" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G149" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I149" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K149" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="15"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F150" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G150" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I150" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K150" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="15"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F151" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G151" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I151" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K151" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="15"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F152" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G152" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I152" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K152" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="15"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F153" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G153" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I153" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K153" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="15"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F154" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G154" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I154" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K154" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="15"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F155" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G155" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I155" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K155" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="15"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F156" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G156" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I156" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J156" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K156" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="15"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F157" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G157" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I157" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K157" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="158" spans="2:11">
+      <c r="B158" s="15"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F158" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G158" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I158" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K158" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="B159" s="15"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F159" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G159" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I159" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K159" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="B160" s="15"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F160" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G160" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I160" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K160" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="15"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F161" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G161" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I161" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K161" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="B162" s="15"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F162" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G162" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I162" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K162" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
+      <c r="B163" s="15"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F163" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G163" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I163" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K163" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="B164" s="15"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F164" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G164" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I164" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K164" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="165" spans="2:11">
+      <c r="B165" s="15"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F165" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G165" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I165" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K165" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="B166" s="15"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F166" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G166" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I166" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K166" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="167" spans="2:11">
+      <c r="B167" s="15"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F167" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G167" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I167" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K167" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="15"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F168" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G168" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I168" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K168" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="15"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F169" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G169" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I169" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J169" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K169" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="15"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F170" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G170" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I170" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K170" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="171" spans="2:11">
+      <c r="B171" s="15"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F171" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G171" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I171" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J171" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K171" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="15"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F172" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G172" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I172" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J172" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K172" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="15"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F173" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G173" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I173" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K173" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="174" spans="2:11">
+      <c r="B174" s="15"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F174" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G174" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I174" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J174" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K174" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="B175" s="15"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F175" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G175" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I175" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K175" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="176" spans="2:11">
+      <c r="B176" s="15"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F176" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G176" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I176" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K176" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="177" spans="2:11">
+      <c r="B177" s="15"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F177" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G177" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H177" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I177" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K177" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="178" spans="2:11">
+      <c r="B178" s="15"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F178" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G178" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I178" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J178" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K178" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="179" spans="2:11">
+      <c r="B179" s="15"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F179" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G179" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I179" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J179" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K179" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="180" spans="2:11">
+      <c r="B180" s="15"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F180" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G180" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I180" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J180" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K180" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="181" spans="2:11">
+      <c r="B181" s="15"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F181" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G181" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I181" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K181" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="182" spans="2:11">
+      <c r="B182" s="15"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F182" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G182" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I182" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J182" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K182" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="183" spans="2:11">
+      <c r="B183" s="15"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F183" s="13" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G183" s="13" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I183" s="12" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J183" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K183" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
+      </c>
+    </row>
+    <row r="184" spans="2:11">
+      <c r="B184" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="19" t="str">
+        <f>IF(B184="",IF(G184="","",_xlfn.UNICHAR(G184)),B184)</f>
+        <v/>
+      </c>
+      <c r="F184" s="13" t="str">
+        <f>IF(B184="",IF(D184="",IF(C184="","",C184),DEC2HEX(D184)),DEC2HEX(_xlfn.UNICODE(B184)))</f>
+        <v/>
+      </c>
+      <c r="G184" s="13" t="str">
+        <f>IF(D184="",IF(C184="",IF(B184="","",_xlfn.UNICODE(B184)),HEX2DEC(C184)),D184)</f>
+        <v/>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I184" s="12" t="str">
+        <f>IF(F184="","","uni"&amp;F184)</f>
+        <v/>
+      </c>
+      <c r="J184" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K184" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    "",  # </v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:K184" xr:uid="{CC871E9A-8DE7-43CD-B49C-4F8F71EEA01F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K184">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>